--- a/Мегамаркет excel фид.xlsx
+++ b/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="332">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -1454,6 +1454,18 @@
   </si>
   <si>
     <t>20 770 ₽</t>
+  </si>
+  <si>
+    <t>Makita</t>
+  </si>
+  <si>
+    <t>DF333DZ</t>
+  </si>
+  <si>
+    <t>Акк. безударная дрель-шуруповерт Makita DF333DZ БЕЗ АККУМУЛЯТОРА И З/У</t>
+  </si>
+  <si>
+    <t>5120</t>
   </si>
   <si>
     <t>Время заказа до</t>
@@ -2513,10 +2525,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,27 +2536,27 @@
         <v>47</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B3" s="51">
         <v>10</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2552,41 +2564,41 @@
         <v>20</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="52" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="52" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
@@ -2596,32 +2608,32 @@
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="52" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="52" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="52" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2942,7 +2954,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5359,6 +5371,64 @@
         <v>54</v>
       </c>
       <c r="Q81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" t="s">
+        <v>305</v>
+      </c>
+      <c r="E82" t="s">
+        <v>306</v>
+      </c>
+      <c r="G82" t="s">
+        <v>307</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J82" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J83" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q83" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Мегамаркет excel фид.xlsx
+++ b/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="332">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -2954,7 +2954,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5429,6 +5429,64 @@
         <v>54</v>
       </c>
       <c r="Q83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" t="s">
+        <v>305</v>
+      </c>
+      <c r="E84" t="s">
+        <v>306</v>
+      </c>
+      <c r="G84" t="s">
+        <v>307</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J84" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" t="s">
+        <v>305</v>
+      </c>
+      <c r="E85" t="s">
+        <v>306</v>
+      </c>
+      <c r="G85" t="s">
+        <v>307</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J85" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q85" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Мегамаркет excel фид.xlsx
+++ b/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="332">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -2954,7 +2954,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -5487,6 +5487,35 @@
         <v>54</v>
       </c>
       <c r="Q85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" t="s">
+        <v>305</v>
+      </c>
+      <c r="E86" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" t="s">
+        <v>307</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="J86" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q86" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Мегамаркет excel фид.xlsx
+++ b/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -685,28 +685,70 @@
     <t>Доступен</t>
   </si>
   <si>
+    <t>Реноваторы аккумуляторные</t>
+  </si>
+  <si>
+    <t>Makita</t>
+  </si>
+  <si>
+    <t>DTM52RTJX1</t>
+  </si>
+  <si>
+    <t>Аккумуляторный многофункциональный инструмент Makita DTM52RTJX1, 20000 об/мин, с 2 АКБ 5 А</t>
+  </si>
+  <si>
+    <t>52386</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4дня</t>
+  </si>
+  <si>
+    <t>Угловые шуруповерты аккумуляторные</t>
+  </si>
+  <si>
+    <t>СПЕЦ</t>
+  </si>
+  <si>
+    <t>SSS-87689209</t>
+  </si>
+  <si>
+    <t>Дрель-шуруповерт аккумуляторная Спец БДА-12ЛИ-3, 12 В Li-ion 2x1.5 Ач</t>
+  </si>
+  <si>
+    <t>6100</t>
+  </si>
+  <si>
     <t>Безударные аккумуляторные шуруповерты</t>
   </si>
   <si>
-    <t>Makita</t>
-  </si>
-  <si>
-    <t>DF333DZ</t>
-  </si>
-  <si>
-    <t>Акк. безударная дрель-шуруповерт Makita DF333DZ БЕЗ АККУМУЛЯТОРА И З/У</t>
-  </si>
-  <si>
-    <t>5120</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>4дня</t>
+    <t>Metabo</t>
+  </si>
+  <si>
+    <t>600080500</t>
+  </si>
+  <si>
+    <t>Акк. безударная дрель-шуруповерт Metabo PowerMaxx BS Basic 600080500</t>
+  </si>
+  <si>
+    <t>14759</t>
+  </si>
+  <si>
+    <t>Аккумуляторные болгарки</t>
+  </si>
+  <si>
+    <t>DGA504Z</t>
+  </si>
+  <si>
+    <t>Машина Makita шлифовальная, угловая, аккумуляторная, DGA504Z</t>
+  </si>
+  <si>
+    <t>16647</t>
   </si>
   <si>
     <t>Время заказа до</t>
@@ -1766,10 +1808,10 @@
         <v>23</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1777,27 +1819,27 @@
         <v>47</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B3" s="51">
         <v>10</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1805,41 +1847,41 @@
         <v>20</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="52" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="52" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="52" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="52" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="52" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.25">
@@ -1849,32 +1891,32 @@
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C11" s="52" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C12" s="52" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C13" s="52" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C14" s="52" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C15" s="52" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C16" s="52" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2387,19 +2429,19 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H5" s="46" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J5" s="46" t="s">
         <v>53</v>
@@ -2416,19 +2458,19 @@
         <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="H6" s="46" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="J6" s="46" t="s">
         <v>53</v>
@@ -2590,19 +2632,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="J12" s="46" t="s">
         <v>53</v>
@@ -2611,122 +2653,6 @@
         <v>54</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Мегамаркет excel фид.xlsx
+++ b/Мегамаркет excel фид.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Файл загрузки товаров "Excel фид"</t>
   </si>
@@ -2237,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2653,6 +2653,93 @@
         <v>54</v>
       </c>
       <c r="Q12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" t="s">
         <v>55</v>
       </c>
     </row>
